--- a/biology/Neurosciences/International_Behavioural_and_Neural_Genetics_Society/International_Behavioural_and_Neural_Genetics_Society.xlsx
+++ b/biology/Neurosciences/International_Behavioural_and_Neural_Genetics_Society/International_Behavioural_and_Neural_Genetics_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le International Behavioural and Neural Genetics Society (IBANGS) a été fondée en 1996[1]. L'objectif de l'IBANGS est de «promouvoir le domaine de la neurogénétique»[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le International Behavioural and Neural Genetics Society (IBANGS) a été fondée en 1996. L'objectif de l'IBANGS est de «promouvoir le domaine de la neurogénétique».
 </t>
         </is>
       </c>
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mission
-La mission d'IBANGS est de promouvoir le domaine de la neurogénétique comportementale[2] par :
-l'organisation de réunions annuelles[3],[4],[5] afin de promouvoir l'excellence dans la recherche sur le neurogénétique comportementale
-la publication d'une revue scientifique, Genes, Brain and Behavior, en collaboration avec Wiley-Blackwell[6],[7]</t>
+          <t>Mission</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La mission d'IBANGS est de promouvoir le domaine de la neurogénétique comportementale par :
+l'organisation de réunions annuelles afin de promouvoir l'excellence dans la recherche sur le neurogénétique comportementale
+la publication d'une revue scientifique, Genes, Brain and Behavior, en collaboration avec Wiley-Blackwell,</t>
         </is>
       </c>
     </row>
@@ -544,13 +561,15 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque année l'IBANGS reconnaît des scientifiques de haut niveau dans le domaine de la neurogénétique comportementale avec[8],[9] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année l'IBANGS reconnaît des scientifiques de haut niveau dans le domaine de la neurogénétique comportementale avec, :
 L'«IBANGS Distinguished Investigator Award» pour des contributions éminentes à la neurogénétique comportementale
 L'«IBANGS Young Scientist Award» pour des jeunes scientifiques prometteurs
-«Travel Awards» pour pouvoir assister à une réunion annuelle de l'IBANGS pour étudiants, post-doctorants et jeunes professeurs, financé par une subvention du National Institute on Alcohol Abuse and Alcoholism[10],[11],[12]
-Une «Distinguished Service Award» pour une contribution exceptionnelle au domaine est donnée sur une base plus irrégulière[13].
+«Travel Awards» pour pouvoir assister à une réunion annuelle de l'IBANGS pour étudiants, post-doctorants et jeunes professeurs, financé par une subvention du National Institute on Alcohol Abuse and Alcoholism
+Une «Distinguished Service Award» pour une contribution exceptionnelle au domaine est donnée sur une base plus irrégulière.
 </t>
         </is>
       </c>
@@ -579,9 +598,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IBANGS a été fondée en 1996 en tant que European Behavioral and Neural Genetics Society, avec Hans-Peter Lipp comme président fondateur[1]. Le nom et la portée d'EBANGS ont été modifiées en "International" pendant la première réunion de la société à Orléans en 1997[1],[14]. IBANGS est un membre fondateur de la Federation of European Neuroscience Societies[2]. Les personnes suivantes ont été président de la société: Marie-Anne Enoch (2011-2012), Richard Brown (2010-2011), Jacqueline Crawley (2009-2010), Christopher Janus (2008-2009), Dan Goldowitz (2007-2008), Tamara J. Phillips (2006-2007), Hee-Sup Shin (2005-2006), Robert W. Williams (2004-2005), Mara Dierssen (2003-2004), John Crabbe (2002-2003), Fred van Leuven (2001-2002), Douglas Wahlsten (2000-2001), Wim E. Crusio (1999-2000), et Hans -Peter Lipp (1996-1999)[15]. L'actuel président est Josh Dubnau (2012-2013)[16].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBANGS a été fondée en 1996 en tant que European Behavioral and Neural Genetics Society, avec Hans-Peter Lipp comme président fondateur. Le nom et la portée d'EBANGS ont été modifiées en "International" pendant la première réunion de la société à Orléans en 1997,. IBANGS est un membre fondateur de la Federation of European Neuroscience Societies. Les personnes suivantes ont été président de la société: Marie-Anne Enoch (2011-2012), Richard Brown (2010-2011), Jacqueline Crawley (2009-2010), Christopher Janus (2008-2009), Dan Goldowitz (2007-2008), Tamara J. Phillips (2006-2007), Hee-Sup Shin (2005-2006), Robert W. Williams (2004-2005), Mara Dierssen (2003-2004), John Crabbe (2002-2003), Fred van Leuven (2001-2002), Douglas Wahlsten (2000-2001), Wim E. Crusio (1999-2000), et Hans -Peter Lipp (1996-1999). L'actuel président est Josh Dubnau (2012-2013).
 </t>
         </is>
       </c>
